--- a/target/classes/com/guru/qa/testdata/Guru99_NewCustomerCreationPage_FRAMEWORK.xlsx
+++ b/target/classes/com/guru/qa/testdata/Guru99_NewCustomerCreationPage_FRAMEWORK.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="5955" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewCustomers" sheetId="1" r:id="rId1"/>
     <sheet name="NewAccounts" sheetId="2" r:id="rId2"/>
     <sheet name="Deposit" sheetId="3" r:id="rId3"/>
+    <sheet name="CustomerIdDataSheet" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>Email</t>
   </si>
@@ -35,9 +37,6 @@
     <t>Aman</t>
   </si>
   <si>
-    <t>aman@yahoo.com</t>
-  </si>
-  <si>
     <t>Patna</t>
   </si>
   <si>
@@ -47,9 +46,6 @@
     <t>Sandeep</t>
   </si>
   <si>
-    <t>sandeep@gmail.com</t>
-  </si>
-  <si>
     <t>Noida</t>
   </si>
   <si>
@@ -59,9 +55,6 @@
     <t>Juney</t>
   </si>
   <si>
-    <t>juney@cibc.com</t>
-  </si>
-  <si>
     <t>Toronto</t>
   </si>
   <si>
@@ -71,9 +64,6 @@
     <t>Maria</t>
   </si>
   <si>
-    <t>maria@hotmail.com</t>
-  </si>
-  <si>
     <t>Newyork</t>
   </si>
   <si>
@@ -216,6 +206,30 @@
   </si>
   <si>
     <t>Amount 55k deposited</t>
+  </si>
+  <si>
+    <t>aman9@yahoo.com</t>
+  </si>
+  <si>
+    <t>sandeep9@gmail.com</t>
+  </si>
+  <si>
+    <t>juney9@cibc.com</t>
+  </si>
+  <si>
+    <t>maria9@hotmail.com</t>
+  </si>
+  <si>
+    <t>84433</t>
+  </si>
+  <si>
+    <t>46927</t>
+  </si>
+  <si>
+    <t>95677</t>
+  </si>
+  <si>
+    <t>49917</t>
   </si>
 </sst>
 </file>
@@ -247,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +272,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
       </patternFill>
     </fill>
   </fills>
@@ -274,12 +293,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -561,42 +581,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.140625" style="2" collapsed="1"/>
+    <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="9.140625" style="2" collapsed="1"/>
+    <col min="8" max="8" width="11.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -605,16 +625,16 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -622,139 +642,139 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -779,20 +799,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,7 +820,7 @@
         <v>20192</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2">
         <v>10000</v>
@@ -811,7 +831,7 @@
         <v>59062</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2">
         <v>15000</v>
@@ -822,7 +842,7 @@
         <v>11805</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2">
         <v>20000</v>
@@ -833,7 +853,7 @@
         <v>74933</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2">
         <v>25000</v>
@@ -849,25 +869,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -878,7 +898,7 @@
         <v>40000</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -889,7 +909,7 @@
         <v>45000</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -900,7 +920,7 @@
         <v>50000</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -911,11 +931,54 @@
         <v>55000</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/classes/com/guru/qa/testdata/Guru99_NewCustomerCreationPage_FRAMEWORK.xlsx
+++ b/target/classes/com/guru/qa/testdata/Guru99_NewCustomerCreationPage_FRAMEWORK.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="5955" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="5955" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NewCustomers" sheetId="1" r:id="rId1"/>
     <sheet name="NewAccounts" sheetId="2" r:id="rId2"/>
     <sheet name="Deposit" sheetId="3" r:id="rId3"/>
     <sheet name="CustomerIdDataSheet" sheetId="4" r:id="rId4"/>
+    <sheet name="AutoCompleteSampleSheet" sheetId="5" r:id="rId5"/>
+    <sheet name="DataFromSeleniumEasyURL" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
   <si>
     <t>Email</t>
   </si>
@@ -230,6 +231,24 @@
   </si>
   <si>
     <t>49917</t>
+  </si>
+  <si>
+    <t>AutoCompleteValue</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>ChildWindow</t>
+  </si>
+  <si>
+    <t>vishalg@testmail.com</t>
+  </si>
+  <si>
+    <t>datepicker</t>
+  </si>
+  <si>
+    <t>09/10/1968</t>
   </si>
 </sst>
 </file>
@@ -293,13 +312,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -581,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
@@ -944,7 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -981,4 +1001,72 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+</worksheet>
 </file>
--- a/target/classes/com/guru/qa/testdata/Guru99_NewCustomerCreationPage_FRAMEWORK.xlsx
+++ b/target/classes/com/guru/qa/testdata/Guru99_NewCustomerCreationPage_FRAMEWORK.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="5955" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="5955" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NewCustomers" sheetId="1" r:id="rId1"/>
@@ -236,9 +236,6 @@
     <t>AutoCompleteValue</t>
   </si>
   <si>
-    <t>java</t>
-  </si>
-  <si>
     <t>ChildWindow</t>
   </si>
   <si>
@@ -249,6 +246,9 @@
   </si>
   <si>
     <t>09/10/1968</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
   </si>
 </sst>
 </file>
@@ -1007,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1036,7 +1036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -1048,18 +1048,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/com/guru/qa/testdata/Guru99_NewCustomerCreationPage_FRAMEWORK.xlsx
+++ b/target/classes/com/guru/qa/testdata/Guru99_NewCustomerCreationPage_FRAMEWORK.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>Email</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>JavaScript</t>
+  </si>
+  <si>
+    <t>Java</t>
   </si>
 </sst>
 </file>
@@ -1005,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,6 +1027,11 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/com/guru/qa/testdata/Guru99_NewCustomerCreationPage_FRAMEWORK.xlsx
+++ b/target/classes/com/guru/qa/testdata/Guru99_NewCustomerCreationPage_FRAMEWORK.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="5955" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="5955" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NewCustomers" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>Email</t>
   </si>
@@ -222,15 +222,6 @@
   </si>
   <si>
     <t>84433</t>
-  </si>
-  <si>
-    <t>46927</t>
-  </si>
-  <si>
-    <t>95677</t>
-  </si>
-  <si>
-    <t>49917</t>
   </si>
   <si>
     <t>AutoCompleteValue</t>
@@ -607,7 +598,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,10 +956,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,21 +977,6 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1011,27 +987,28 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1056,18 +1033,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/com/guru/qa/testdata/Guru99_NewCustomerCreationPage_FRAMEWORK.xlsx
+++ b/target/classes/com/guru/qa/testdata/Guru99_NewCustomerCreationPage_FRAMEWORK.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="5955" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="5955" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="NewCustomers" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="CustomerIdDataSheet" sheetId="4" r:id="rId4"/>
     <sheet name="AutoCompleteSampleSheet" sheetId="5" r:id="rId5"/>
     <sheet name="DataFromSeleniumEasyURL" sheetId="8" r:id="rId6"/>
+    <sheet name="DDDataFromSeleniumEasyURL" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
   <si>
     <t>Email</t>
   </si>
@@ -243,6 +244,24 @@
   </si>
   <si>
     <t>Java</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1022,7 +1041,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,4 +1073,53 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>